--- a/tests/models/data/list_item_export_mapping.xlsx
+++ b/tests/models/data/list_item_export_mapping.xlsx
@@ -1,22 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seth/Desktop/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A094A5CA-9023-C34B-A530-613AF118996F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="235" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16440" xr2:uid="{142B6A0F-ED71-FD45-BD32-FFEBBB52950B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Mapping" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Replacements" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>Rule type</t>
   </si>
@@ -108,48 +128,22 @@
   </si>
   <si>
     <t>Set exporter type, i.e. the format of the exported data. Currently supported: XML, MARC21 and CSV.</t>
-  </si>
-  <si>
-    <t>Mapping #</t>
-  </si>
-  <si>
-    <t>Search</t>
-  </si>
-  <si>
-    <t>Replace</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -163,7 +157,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -192,7 +186,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -200,113 +194,380 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <tabColor rgb="FFFFFFFF"/>
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD54832-9340-CC44-8F09-FB6696C7DFD4}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="1" sqref="2:2 C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6887755102041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.2295918367347"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.8877551020408"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.7040816326531"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="36.0612244897959"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="38.7142857142857"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="39.2448979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="10.2397959183673"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -316,7 +577,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -329,193 +590,172 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="3">
         <v>1</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>3</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="3">
         <v>3</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>4</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="3">
         <v>4</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="33.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>5</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="3">
         <v>5</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" s="4" customFormat="true" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" s="5" customFormat="true" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="6" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="28.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="14" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Seite &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <tabColor rgb="FFFFFFFF"/>
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="2:2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.7295918367347"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.94387755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="7" width="8.94387755102041"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Seite &amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>